--- a/SS_dataV5.xlsx
+++ b/SS_dataV5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC59F716-940E-49A5-95F5-750CDBA40AAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C89854-DEF8-47B1-B1BC-D2260F8C3D09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41172" yWindow="-276" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="28">
   <si>
     <t>j</t>
   </si>
@@ -119,6 +119,9 @@
   <si>
     <t>X</t>
   </si>
+  <si>
+    <t>Free pass</t>
+  </si>
 </sst>
 </file>
 
@@ -133,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +200,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -321,6 +330,24 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -345,24 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED029AD8-46FF-45D9-BA57-74278BA57925}">
   <dimension ref="A2:V6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -951,8 +961,8 @@
       <c r="R5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="7" t="s">
-        <v>10</v>
+      <c r="S5" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>10</v>
@@ -1152,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:BJ9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AM27" sqref="AM27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1246,106 +1256,106 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37">
-        <v>1</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="40">
-        <v>3</v>
-      </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="40">
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30">
+        <v>2</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="32">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="32">
         <v>4</v>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="39">
-        <v>1</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="38">
-        <v>2</v>
-      </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="37">
-        <v>3</v>
-      </c>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="39">
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="31">
+        <v>1</v>
+      </c>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="30">
+        <v>2</v>
+      </c>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="29">
+        <v>3</v>
+      </c>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="31">
         <v>4</v>
       </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="36">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="39">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="36">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="30">
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="31">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="42">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="36">
         <v>4</v>
       </c>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="29">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="36">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="33">
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="42">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="29">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="39">
         <v>4</v>
       </c>
-      <c r="AW3" s="34"/>
-      <c r="AX3" s="35"/>
-      <c r="AY3" s="29">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="29"/>
-      <c r="BA3" s="29"/>
-      <c r="BB3" s="29">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="29"/>
-      <c r="BD3" s="29"/>
-      <c r="BE3" s="29">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="29"/>
-      <c r="BG3" s="29"/>
-      <c r="BH3" s="29">
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="41"/>
+      <c r="AY3" s="35">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="35"/>
+      <c r="BA3" s="35"/>
+      <c r="BB3" s="35">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="35"/>
+      <c r="BD3" s="35"/>
+      <c r="BE3" s="35">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="35"/>
+      <c r="BG3" s="35"/>
+      <c r="BH3" s="35">
         <v>4</v>
       </c>
-      <c r="BI3" s="29"/>
-      <c r="BJ3" s="29"/>
+      <c r="BI3" s="35"/>
+      <c r="BJ3" s="35"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -1689,7 +1699,7 @@
       <c r="AY5" s="9">
         <v>1</v>
       </c>
-      <c r="AZ5" s="15">
+      <c r="AZ5" s="43">
         <v>1</v>
       </c>
       <c r="BA5" s="15">
@@ -1877,7 +1887,7 @@
       <c r="AY6" s="9">
         <v>0.02</v>
       </c>
-      <c r="AZ6" s="15">
+      <c r="AZ6" s="43">
         <v>1</v>
       </c>
       <c r="BA6" s="15">
@@ -2065,7 +2075,7 @@
       <c r="AY7" s="9">
         <v>0</v>
       </c>
-      <c r="AZ7" s="15">
+      <c r="AZ7" s="43">
         <v>1</v>
       </c>
       <c r="BA7" s="15">
@@ -2253,7 +2263,7 @@
       <c r="AY8" s="9">
         <v>0</v>
       </c>
-      <c r="AZ8" s="15">
+      <c r="AZ8" s="43">
         <v>1</v>
       </c>
       <c r="BA8" s="15">
@@ -2441,7 +2451,7 @@
       <c r="AY9" s="9">
         <v>0.02</v>
       </c>
-      <c r="AZ9" s="15">
+      <c r="AZ9" s="43">
         <v>1</v>
       </c>
       <c r="BA9" s="15">
@@ -2477,16 +2487,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH3:BJ3"/>
@@ -2502,6 +2502,16 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2511,8 +2521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5590460-C8AD-4B8B-AD99-70907047F648}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2770,8 +2780,8 @@
       <c r="R5" s="15">
         <v>18000</v>
       </c>
-      <c r="S5" s="15">
-        <v>5000</v>
+      <c r="S5" s="43">
+        <v>0</v>
       </c>
       <c r="T5" s="15">
         <v>18000</v>
@@ -2941,7 +2951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A8D9CF-89E1-4D29-97E2-CF708CF25EA6}">
   <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/SS_dataV5.xlsx
+++ b/SS_dataV5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C89854-DEF8-47B1-B1BC-D2260F8C3D09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B15FE1F-2B20-4484-9FCF-5A26EB424AA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41172" yWindow="-276" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="872" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,18 @@
     <sheet name="SF a,j,k,i" sheetId="2" r:id="rId4"/>
     <sheet name="EC a,j,k" sheetId="3" r:id="rId5"/>
     <sheet name="Flow0 i" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="Tau a,j,k,u" sheetId="8" r:id="rId7"/>
+    <sheet name="SecFlow a,j,k,i" sheetId="9" r:id="rId8"/>
+    <sheet name="Temperature a,j,k" sheetId="10" r:id="rId9"/>
+    <sheet name="CP i" sheetId="11" r:id="rId10"/>
+    <sheet name="HeatT a,j,k" sheetId="12" r:id="rId11"/>
+    <sheet name="EfficiencyH a,j,k" sheetId="13" r:id="rId12"/>
+    <sheet name="ReferenceCost a,j,k" sheetId="14" r:id="rId13"/>
+    <sheet name="ReferenceSize a,j,k" sheetId="16" r:id="rId14"/>
+    <sheet name="ReferenceIndex a,j,k" sheetId="17" r:id="rId15"/>
+    <sheet name="SizingFactor a,j,k" sheetId="15" r:id="rId16"/>
+    <sheet name="SpecificCostU u" sheetId="19" r:id="rId17"/>
+    <sheet name="SingleConstants" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="30">
   <si>
     <t>j</t>
   </si>
@@ -114,13 +125,19 @@
     <t>a</t>
   </si>
   <si>
-    <t xml:space="preserve">a </t>
+    <t>Free pass</t>
   </si>
   <si>
-    <t>X</t>
+    <t>IR</t>
   </si>
   <si>
-    <t>Free pass</t>
+    <t>Lifetime</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>IDX2020</t>
   </si>
 </sst>
 </file>
@@ -291,6 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -330,24 +348,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -372,7 +372,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,7 +730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED029AD8-46FF-45D9-BA57-74278BA57925}">
   <dimension ref="A2:V6"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
@@ -743,36 +760,36 @@
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="20">
-        <v>1</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="19">
-        <v>2</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="23">
-        <v>3</v>
-      </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26">
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="20">
+        <v>2</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="24">
+        <v>3</v>
+      </c>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="27">
         <v>4</v>
       </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="16">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="17">
         <v>5</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -961,8 +978,8 @@
       <c r="R5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="43" t="s">
-        <v>27</v>
+      <c r="S5" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>10</v>
@@ -1048,6 +1065,145 @@
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879FE587-3BB9-4285-A244-F51880842FF4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5329C9A-0D09-4163-94DE-93A3B4B570EF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4F6867-2792-4405-ADF3-A1AC2FFDC93A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A5597-CC42-4FD7-B1A1-C17BDC0706FE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A28449-D94E-4909-B508-C0F95C8C63AA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F286E7-365E-4CD4-97CA-BA6EEF12D309}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9531EC-CA23-40AE-B9E3-0DD65FEE9D1D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A225510A-AA85-4DB0-9F23-80E69C775E1F}">
+  <dimension ref="A3:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1162,7 +1318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:BJ9"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AM27" sqref="AM27"/>
     </sheetView>
   </sheetViews>
@@ -1180,182 +1336,182 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="20">
-        <v>1</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="19">
-        <v>2</v>
-      </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="23">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="26">
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="20">
+        <v>2</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="27">
         <v>4</v>
       </c>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="16">
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="28"/>
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="28"/>
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="17">
         <v>5</v>
       </c>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="17"/>
-      <c r="BB2" s="17"/>
-      <c r="BC2" s="17"/>
-      <c r="BD2" s="17"/>
-      <c r="BE2" s="17"/>
-      <c r="BF2" s="17"/>
-      <c r="BG2" s="17"/>
-      <c r="BH2" s="17"/>
-      <c r="BI2" s="17"/>
-      <c r="BJ2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="19"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29">
-        <v>1</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30">
-        <v>2</v>
-      </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="32">
-        <v>3</v>
-      </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="32">
+      <c r="C3" s="38">
+        <v>1</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="40">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="41">
         <v>4</v>
       </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="31">
-        <v>1</v>
-      </c>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="30">
-        <v>2</v>
-      </c>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="29">
-        <v>3</v>
-      </c>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="31">
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="39">
+        <v>1</v>
+      </c>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40">
+        <v>2</v>
+      </c>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="38">
+        <v>3</v>
+      </c>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="39">
         <v>4</v>
       </c>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="31">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="42">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="36">
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="39">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="37">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="31">
         <v>4</v>
       </c>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="35">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="42">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="29">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="29"/>
-      <c r="AV3" s="39">
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="37">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="38">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="34">
         <v>4</v>
       </c>
-      <c r="AW3" s="40"/>
-      <c r="AX3" s="41"/>
-      <c r="AY3" s="35">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="35"/>
-      <c r="BA3" s="35"/>
-      <c r="BB3" s="35">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="35"/>
-      <c r="BD3" s="35"/>
-      <c r="BE3" s="35">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="35"/>
-      <c r="BG3" s="35"/>
-      <c r="BH3" s="35">
+      <c r="AW3" s="35"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="30">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="30"/>
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="30">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="30"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30">
         <v>4</v>
       </c>
-      <c r="BI3" s="35"/>
-      <c r="BJ3" s="35"/>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="30"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -1699,7 +1855,7 @@
       <c r="AY5" s="9">
         <v>1</v>
       </c>
-      <c r="AZ5" s="43">
+      <c r="AZ5" s="16">
         <v>1</v>
       </c>
       <c r="BA5" s="15">
@@ -1887,7 +2043,7 @@
       <c r="AY6" s="9">
         <v>0.02</v>
       </c>
-      <c r="AZ6" s="43">
+      <c r="AZ6" s="16">
         <v>1</v>
       </c>
       <c r="BA6" s="15">
@@ -2075,7 +2231,7 @@
       <c r="AY7" s="9">
         <v>0</v>
       </c>
-      <c r="AZ7" s="43">
+      <c r="AZ7" s="16">
         <v>1</v>
       </c>
       <c r="BA7" s="15">
@@ -2263,7 +2419,7 @@
       <c r="AY8" s="9">
         <v>0</v>
       </c>
-      <c r="AZ8" s="43">
+      <c r="AZ8" s="16">
         <v>1</v>
       </c>
       <c r="BA8" s="15">
@@ -2451,7 +2607,7 @@
       <c r="AY9" s="9">
         <v>0.02</v>
       </c>
-      <c r="AZ9" s="43">
+      <c r="AZ9" s="16">
         <v>1</v>
       </c>
       <c r="BA9" s="15">
@@ -2487,6 +2643,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH3:BJ3"/>
@@ -2502,16 +2668,6 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2521,16 +2677,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5590460-C8AD-4B8B-AD99-70907047F648}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -2562,36 +2721,36 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="20">
-        <v>1</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="19">
-        <v>2</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="23">
-        <v>3</v>
-      </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26">
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="20">
+        <v>2</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="24">
+        <v>3</v>
+      </c>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="27">
         <v>4</v>
       </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="16">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="17">
         <v>5</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -2682,7 +2841,7 @@
         <v>250</v>
       </c>
       <c r="H4" s="9">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="I4" s="9">
         <v>6700</v>
@@ -2709,7 +2868,7 @@
         <v>1000</v>
       </c>
       <c r="Q4" s="9">
-        <v>6700</v>
+        <v>67000</v>
       </c>
       <c r="R4" s="15">
         <v>18000</v>
@@ -2775,13 +2934,13 @@
         <v>1500</v>
       </c>
       <c r="Q5" s="9">
-        <v>1740</v>
+        <v>17400</v>
       </c>
       <c r="R5" s="15">
         <v>18000</v>
       </c>
-      <c r="S5" s="43">
-        <v>0</v>
+      <c r="S5" s="16">
+        <v>100000</v>
       </c>
       <c r="T5" s="15">
         <v>18000</v>
@@ -2841,7 +3000,7 @@
         <v>2000</v>
       </c>
       <c r="Q6" s="15">
-        <v>8000</v>
+        <v>80000</v>
       </c>
       <c r="R6" s="15">
         <v>18000</v>
@@ -2877,7 +3036,7 @@
   <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2948,65 +3107,37 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A8D9CF-89E1-4D29-97E2-CF708CF25EA6}">
-  <dimension ref="A2:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B03A829-9C2C-4441-A960-5880B3405C0F}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8040CC40-5877-4CF1-8673-EDFA845D1CA2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DDF243-CEC2-4934-A255-3B8397B564B1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>